--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Adam17-Itga5.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Adam17-Itga5.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.6124870237155</v>
+        <v>30.07831966666667</v>
       </c>
       <c r="H2">
-        <v>22.6124870237155</v>
+        <v>90.234959</v>
       </c>
       <c r="I2">
-        <v>0.1862326662554579</v>
+        <v>0.2269842729019557</v>
       </c>
       <c r="J2">
-        <v>0.1862326662554579</v>
+        <v>0.2269842729019557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N2">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O2">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P2">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q2">
-        <v>579.5165540006044</v>
+        <v>939.3147821030385</v>
       </c>
       <c r="R2">
-        <v>579.5165540006044</v>
+        <v>8453.833038927345</v>
       </c>
       <c r="S2">
-        <v>0.04812340274255209</v>
+        <v>0.06530580343272444</v>
       </c>
       <c r="T2">
-        <v>0.04812340274255209</v>
+        <v>0.06530580343272444</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.6124870237155</v>
+        <v>30.07831966666667</v>
       </c>
       <c r="H3">
-        <v>22.6124870237155</v>
+        <v>90.234959</v>
       </c>
       <c r="I3">
-        <v>0.1862326662554579</v>
+        <v>0.2269842729019557</v>
       </c>
       <c r="J3">
-        <v>0.1862326662554579</v>
+        <v>0.2269842729019557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N3">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O3">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P3">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q3">
-        <v>912.871606961628</v>
+        <v>1216.541180216526</v>
       </c>
       <c r="R3">
-        <v>912.871606961628</v>
+        <v>10948.87062194873</v>
       </c>
       <c r="S3">
-        <v>0.07580540657689189</v>
+        <v>0.08457995199986117</v>
       </c>
       <c r="T3">
-        <v>0.07580540657689189</v>
+        <v>0.08457995199986115</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.6124870237155</v>
+        <v>30.07831966666667</v>
       </c>
       <c r="H4">
-        <v>22.6124870237155</v>
+        <v>90.234959</v>
       </c>
       <c r="I4">
-        <v>0.1862326662554579</v>
+        <v>0.2269842729019557</v>
       </c>
       <c r="J4">
-        <v>0.1862326662554579</v>
+        <v>0.2269842729019557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N4">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O4">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P4">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q4">
-        <v>492.1637094368847</v>
+        <v>763.0761818526796</v>
       </c>
       <c r="R4">
-        <v>492.1637094368847</v>
+        <v>6867.685636674117</v>
       </c>
       <c r="S4">
-        <v>0.04086957005972754</v>
+        <v>0.05305282540608256</v>
       </c>
       <c r="T4">
-        <v>0.04086957005972754</v>
+        <v>0.05305282540608256</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.6124870237155</v>
+        <v>30.07831966666667</v>
       </c>
       <c r="H5">
-        <v>22.6124870237155</v>
+        <v>90.234959</v>
       </c>
       <c r="I5">
-        <v>0.1862326662554579</v>
+        <v>0.2269842729019557</v>
       </c>
       <c r="J5">
-        <v>0.1862326662554579</v>
+        <v>0.2269842729019557</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N5">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O5">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P5">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q5">
-        <v>258.1181579045409</v>
+        <v>345.8570726292566</v>
       </c>
       <c r="R5">
-        <v>258.1181579045409</v>
+        <v>3112.713653663309</v>
       </c>
       <c r="S5">
-        <v>0.0214342868762864</v>
+        <v>0.02404569206328758</v>
       </c>
       <c r="T5">
-        <v>0.0214342868762864</v>
+        <v>0.02404569206328758</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.8654407152529</v>
+        <v>31.96959266666667</v>
       </c>
       <c r="H6">
-        <v>31.8654407152529</v>
+        <v>95.90877800000001</v>
       </c>
       <c r="I6">
-        <v>0.2624384473756873</v>
+        <v>0.2412566535243296</v>
       </c>
       <c r="J6">
-        <v>0.2624384473756873</v>
+        <v>0.2412566535243296</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N6">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O6">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P6">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q6">
-        <v>816.6527801938189</v>
+        <v>998.3772797950593</v>
       </c>
       <c r="R6">
-        <v>816.6527801938189</v>
+        <v>8985.395518155532</v>
       </c>
       <c r="S6">
-        <v>0.0678153374063082</v>
+        <v>0.06941212001371672</v>
       </c>
       <c r="T6">
-        <v>0.0678153374063082</v>
+        <v>0.06941212001371672</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.8654407152529</v>
+        <v>31.96959266666667</v>
       </c>
       <c r="H7">
-        <v>31.8654407152529</v>
+        <v>95.90877800000001</v>
       </c>
       <c r="I7">
-        <v>0.2624384473756873</v>
+        <v>0.2412566535243296</v>
       </c>
       <c r="J7">
-        <v>0.2624384473756873</v>
+        <v>0.2412566535243296</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N7">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O7">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P7">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q7">
-        <v>1286.415600449672</v>
+        <v>1293.035196937861</v>
       </c>
       <c r="R7">
-        <v>1286.415600449672</v>
+        <v>11637.31677244074</v>
       </c>
       <c r="S7">
-        <v>0.1068247241728957</v>
+        <v>0.08989819388741942</v>
       </c>
       <c r="T7">
-        <v>0.1068247241728957</v>
+        <v>0.0898981938874194</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>31.8654407152529</v>
+        <v>31.96959266666667</v>
       </c>
       <c r="H8">
-        <v>31.8654407152529</v>
+        <v>95.90877800000001</v>
       </c>
       <c r="I8">
-        <v>0.2624384473756873</v>
+        <v>0.2412566535243296</v>
       </c>
       <c r="J8">
-        <v>0.2624384473756873</v>
+        <v>0.2412566535243296</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N8">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O8">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P8">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q8">
-        <v>693.5554452198022</v>
+        <v>811.057099526097</v>
       </c>
       <c r="R8">
-        <v>693.5554452198022</v>
+        <v>7299.513895734873</v>
       </c>
       <c r="S8">
-        <v>0.0575932607691613</v>
+        <v>0.05638869580629757</v>
       </c>
       <c r="T8">
-        <v>0.0575932607691613</v>
+        <v>0.05638869580629757</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>31.8654407152529</v>
+        <v>31.96959266666667</v>
       </c>
       <c r="H9">
-        <v>31.8654407152529</v>
+        <v>95.90877800000001</v>
       </c>
       <c r="I9">
-        <v>0.2624384473756873</v>
+        <v>0.2412566535243296</v>
       </c>
       <c r="J9">
-        <v>0.2624384473756873</v>
+        <v>0.2412566535243296</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N9">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O9">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P9">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q9">
-        <v>363.7392406068017</v>
+        <v>367.603970413831</v>
       </c>
       <c r="R9">
-        <v>363.7392406068017</v>
+        <v>3308.435733724479</v>
       </c>
       <c r="S9">
-        <v>0.0302051250273222</v>
+        <v>0.02555764381689596</v>
       </c>
       <c r="T9">
-        <v>0.0302051250273222</v>
+        <v>0.02555764381689596</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>52.3644237653586</v>
+        <v>55.83720666666667</v>
       </c>
       <c r="H10">
-        <v>52.3644237653586</v>
+        <v>167.51162</v>
       </c>
       <c r="I10">
-        <v>0.4312646479144793</v>
+        <v>0.4213722008598541</v>
       </c>
       <c r="J10">
-        <v>0.4312646479144793</v>
+        <v>0.4213722008598541</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N10">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O10">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P10">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q10">
-        <v>1342.004105116862</v>
+        <v>1743.738154078698</v>
       </c>
       <c r="R10">
-        <v>1342.004105116862</v>
+        <v>15693.64338670828</v>
       </c>
       <c r="S10">
-        <v>0.111440826990819</v>
+        <v>0.1212332897321672</v>
       </c>
       <c r="T10">
-        <v>0.111440826990819</v>
+        <v>0.1212332897321672</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>52.3644237653586</v>
+        <v>55.83720666666667</v>
       </c>
       <c r="H11">
-        <v>52.3644237653586</v>
+        <v>167.51162</v>
       </c>
       <c r="I11">
-        <v>0.4312646479144793</v>
+        <v>0.4213722008598541</v>
       </c>
       <c r="J11">
-        <v>0.4312646479144793</v>
+        <v>0.4213722008598541</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N11">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O11">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P11">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q11">
-        <v>2113.964537388959</v>
+        <v>2258.379525553751</v>
       </c>
       <c r="R11">
-        <v>2113.964537388959</v>
+        <v>20325.41572998376</v>
       </c>
       <c r="S11">
-        <v>0.1755448849803445</v>
+        <v>0.1570136999676476</v>
       </c>
       <c r="T11">
-        <v>0.1755448849803445</v>
+        <v>0.1570136999676476</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>52.3644237653586</v>
+        <v>55.83720666666667</v>
       </c>
       <c r="H12">
-        <v>52.3644237653586</v>
+        <v>167.51162</v>
       </c>
       <c r="I12">
-        <v>0.4312646479144793</v>
+        <v>0.4213722008598541</v>
       </c>
       <c r="J12">
-        <v>0.4312646479144793</v>
+        <v>0.4213722008598541</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N12">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O12">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P12">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q12">
-        <v>1139.718466874292</v>
+        <v>1416.569906188542</v>
       </c>
       <c r="R12">
-        <v>1139.718466874292</v>
+        <v>12749.12915569688</v>
       </c>
       <c r="S12">
-        <v>0.09464290608419505</v>
+        <v>0.09848693707889918</v>
       </c>
       <c r="T12">
-        <v>0.09464290608419505</v>
+        <v>0.09848693707889918</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>52.3644237653586</v>
+        <v>55.83720666666667</v>
       </c>
       <c r="H13">
-        <v>52.3644237653586</v>
+        <v>167.51162</v>
       </c>
       <c r="I13">
-        <v>0.4312646479144793</v>
+        <v>0.4213722008598541</v>
       </c>
       <c r="J13">
-        <v>0.4312646479144793</v>
+        <v>0.4213722008598541</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N13">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O13">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P13">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q13">
-        <v>597.732066705958</v>
+        <v>642.0469313294022</v>
       </c>
       <c r="R13">
-        <v>597.732066705958</v>
+        <v>5778.42238196462</v>
       </c>
       <c r="S13">
-        <v>0.04963602985912086</v>
+        <v>0.04463827408114016</v>
       </c>
       <c r="T13">
-        <v>0.04963602985912086</v>
+        <v>0.04463827408114016</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.578275061249</v>
+        <v>14.62767266666667</v>
       </c>
       <c r="H14">
-        <v>14.578275061249</v>
+        <v>43.883018</v>
       </c>
       <c r="I14">
-        <v>0.1200642384543755</v>
+        <v>0.1103868727138606</v>
       </c>
       <c r="J14">
-        <v>0.1200642384543755</v>
+        <v>0.1103868727138606</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N14">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O14">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P14">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q14">
-        <v>373.6144422286464</v>
+        <v>456.8070728628991</v>
       </c>
       <c r="R14">
-        <v>373.6144422286464</v>
+        <v>4111.263655766092</v>
       </c>
       <c r="S14">
-        <v>0.03102516770173982</v>
+        <v>0.03175948412125625</v>
       </c>
       <c r="T14">
-        <v>0.03102516770173982</v>
+        <v>0.03175948412125625</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.578275061249</v>
+        <v>14.62767266666667</v>
       </c>
       <c r="H15">
-        <v>14.578275061249</v>
+        <v>43.883018</v>
       </c>
       <c r="I15">
-        <v>0.1200642384543755</v>
+        <v>0.1103868727138606</v>
       </c>
       <c r="J15">
-        <v>0.1200642384543755</v>
+        <v>0.1103868727138606</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N15">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O15">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P15">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q15">
-        <v>588.5285138221972</v>
+        <v>591.6276695951404</v>
       </c>
       <c r="R15">
-        <v>588.5285138221972</v>
+        <v>5324.649026356264</v>
       </c>
       <c r="S15">
-        <v>0.04887176129935313</v>
+        <v>0.04113287795752246</v>
       </c>
       <c r="T15">
-        <v>0.04887176129935313</v>
+        <v>0.04113287795752246</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.578275061249</v>
+        <v>14.62767266666667</v>
       </c>
       <c r="H16">
-        <v>14.578275061249</v>
+        <v>43.883018</v>
       </c>
       <c r="I16">
-        <v>0.1200642384543755</v>
+        <v>0.1103868727138606</v>
       </c>
       <c r="J16">
-        <v>0.1200642384543755</v>
+        <v>0.1103868727138606</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N16">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O16">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P16">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q16">
-        <v>317.2980452707681</v>
+        <v>371.0988090947369</v>
       </c>
       <c r="R16">
-        <v>317.2980452707681</v>
+        <v>3339.889281852632</v>
       </c>
       <c r="S16">
-        <v>0.02634862027077447</v>
+        <v>0.02580062226488049</v>
       </c>
       <c r="T16">
-        <v>0.02634862027077447</v>
+        <v>0.02580062226488049</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.578275061249</v>
+        <v>14.62767266666667</v>
       </c>
       <c r="H17">
-        <v>14.578275061249</v>
+        <v>43.883018</v>
       </c>
       <c r="I17">
-        <v>0.1200642384543755</v>
+        <v>0.1103868727138606</v>
       </c>
       <c r="J17">
-        <v>0.1200642384543755</v>
+        <v>0.1103868727138606</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N17">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O17">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P17">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q17">
-        <v>166.4088297889936</v>
+        <v>168.1970304171909</v>
       </c>
       <c r="R17">
-        <v>166.4088297889936</v>
+        <v>1513.773273754718</v>
       </c>
       <c r="S17">
-        <v>0.01381868918250813</v>
+        <v>0.01169388837020146</v>
       </c>
       <c r="T17">
-        <v>0.01381868918250813</v>
+        <v>0.01169388837020146</v>
       </c>
     </row>
   </sheetData>
